--- a/Results/1DTubeRegression_feb112025.xlsx
+++ b/Results/1DTubeRegression_feb112025.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kx2\Documents\kxu\Acoustic-Touchscreen-Attachment-ML\Results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF723FE4-5DAC-46C3-8075-A2E73CAE9D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -66,6 +72,2296 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>1D Tube Regression Results</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.156</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.156</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$500</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="500"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>5.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$500</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="500"/>
+                <c:pt idx="0">
+                  <c:v>1.0860487775762839</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.104207532904681</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96539335477773003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.033996567537911</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0567766645960539</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1473088621900649</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.106044113826568</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93140474503278181</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91846674048145749</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.021659343306526</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.015891995574512</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.86918164655041874</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0474960383465131</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.90144655054391443</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0169616395710881</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0757981552516891</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8723222524603651</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.004843208054744</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0237003374292599</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0552812821208399</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.772556590320171</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.8329721105408721</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.849115622607284</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.8314105524910189</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.769913345457705</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.9093449004041601</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.9231683836849931</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.726441945707399</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.789087949217709</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.67837162852846</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.4529415217368311</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.500202318491876</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.441585825115598</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.373253508319203</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.4411691482741791</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.467571058862368</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.4435435540077559</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.335804362635084</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.544968383374866</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.270030469786823</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.956112962279146</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.9938679455568149</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.043977371243074</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.984716564248735</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.049323379600497</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.8966835416963339</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.0216841818582312</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.027643353981325</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.0728286834503309</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.1566267013028848</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.222271563813512</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.2148005204960839</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.2419068600667762</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.2657123229986591</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.0977626566286371</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.0915376669914769</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.199202410380106</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.2026111670029138</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.085092561975137</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.212234224960179</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.2315055656051141</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.495525994198752</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.3974560426607048</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.4410531572802969</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.3917999250420712</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.3447431664086089</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.3660536816944848</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.338948167458073</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.283107450290053</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.3755038247154778</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.3378610085389369</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.4751829510671981</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.4599837928025798</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.4656455931999832</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.4588391131408902</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.528449745183329</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.514920509119118</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.5199720578783809</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.359489700434545</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.3338253953756611</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.8919414636948968</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.916698952920056</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.0627662171951151</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.9010343303324442</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.8587727783986212</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.90035352874277</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.880866696795831</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.9534369315942421</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.9599452341973702</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.8781914425305701</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.1280588390301669</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.140334386455125</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.126636114096597</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.1404722876371531</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.0896408003896951</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.1420510923396172</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.0622481551773841</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.0694296635826248</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.2151712596184132</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.94244388492594</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3.5516587207485171</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3.4355523723632122</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3.1919982020458142</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3.5224889564770852</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.4784171747944281</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3.369611642059128</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.3392556968736682</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.2802584013525391</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.4576821962378519</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3.2916319689506812</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3.392648300907922</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3.418181986407371</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3.4471733744168032</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.4716819841138582</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3.42705756371255</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3.4014011285831671</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3.3947975052219741</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3.3109277729772151</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3.4350147299826008</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3.5179621721854129</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4.0605282317867184</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3.9706468702322328</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>4.1069750143098842</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>4.0701140459393121</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>4.093774193777227</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>4.0108933641803439</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>3.9888502901310958</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>4.1344475539587568</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>4.1821233862431999</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>4.1958164707613594</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>3.9064983046287969</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3.9690101203731101</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3.94646228864314</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3.9518611926865019</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3.89832853315749</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>3.857728133740677</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3.9752496486749211</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>3.9463755929338089</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>4.0096558967636629</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3.9671667975205969</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>4.3301190224900603</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>4.3416984840332304</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>4.3777067896615351</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>4.3419161856696578</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>4.602378076904853</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>4.3017793131040811</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>4.2758125875856123</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>4.3208369963286444</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>4.3764729429948392</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>4.4324710107205947</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>4.1933348933914978</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>4.1868533151321667</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>4.2865198485823903</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>4.3459800846102743</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>4.1959007694353367</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>4.2337622594126358</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>4.2667750783543017</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>4.2919310581576662</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>4.3433800377330192</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>4.2266830006605272</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>4.7703288177172984</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>4.7601256402567014</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>4.8124668317309194</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>4.7994310846141639</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>4.8111271829883986</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>4.7836340003633779</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>4.7222325807656524</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>4.739683385255276</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>4.6540313836801568</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>4.3933650265338873</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>5.1585163442901978</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>5.1725654345627916</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>4.8867061068223014</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>5.0911687144526958</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>5.0959083112855517</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>5.1408299309951762</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>5.068395808385878</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>5.0616254160538388</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>4.9779272061925939</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>5.0796803541012574</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>5.4384651216575852</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>5.445117717656065</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>5.4183455522191091</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>5.44109492272929</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>5.3903001630817933</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>5.3278202866227682</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>5.3841238661433231</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>5.3126946432818496</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>5.3426746949432324</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>5.1631829532057916</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>5.4142718462895996</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>5.500612087434547</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>5.5195001246387552</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>5.4207535074927016</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>5.4938978639527516</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>5.5022544398230613</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>5.4854559235492788</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>5.5158350021930653</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>5.495284376995528</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>5.6231683271761206</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D019-4F14-9049-0300838F09FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="726032688"/>
+        <c:axId val="726053328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="726032688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Actual Distance (cm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="726053328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="726053328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Predicted Distance (cm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="726032688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2021CED-DB2B-D3B2-146E-247DB71DCEB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +2626,1617 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U30" sqref="U30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1.0860487775762839</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1.104207532904681</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.96539335477773003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1.033996567537911</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1.0567766645960539</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1.1473088621900649</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1.106044113826568</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0.93140474503278181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0.91846674048145749</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1.021659343306526</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1.015891995574512</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>0.86918164655041874</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1.0474960383465131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0.90144655054391443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1.0169616395710881</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1.0757981552516891</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0.8723222524603651</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>1.004843208054744</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>1.0237003374292599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1.0552812821208399</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>1.5</v>
+      </c>
+      <c r="B21">
+        <v>1.772556590320171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>1.5</v>
+      </c>
+      <c r="B22">
+        <v>1.8329721105408721</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>1.5</v>
+      </c>
+      <c r="B23">
+        <v>1.849115622607284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>1.5</v>
+      </c>
+      <c r="B24">
+        <v>1.8314105524910189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>1.5</v>
+      </c>
+      <c r="B25">
+        <v>1.769913345457705</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>1.5</v>
+      </c>
+      <c r="B26">
+        <v>1.9093449004041601</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>1.5</v>
+      </c>
+      <c r="B27">
+        <v>1.9231683836849931</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>1.5</v>
+      </c>
+      <c r="B28">
+        <v>1.726441945707399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>1.5</v>
+      </c>
+      <c r="B29">
+        <v>1.789087949217709</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>1.5</v>
+      </c>
+      <c r="B30">
+        <v>1.67837162852846</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>1.5</v>
+      </c>
+      <c r="B31">
+        <v>1.4529415217368311</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>1.5</v>
+      </c>
+      <c r="B32">
+        <v>1.500202318491876</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>1.5</v>
+      </c>
+      <c r="B33">
+        <v>1.441585825115598</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>1.5</v>
+      </c>
+      <c r="B34">
+        <v>1.373253508319203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>1.5</v>
+      </c>
+      <c r="B35">
+        <v>1.4411691482741791</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>1.5</v>
+      </c>
+      <c r="B36">
+        <v>1.467571058862368</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>1.5</v>
+      </c>
+      <c r="B37">
+        <v>1.4435435540077559</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>1.5</v>
+      </c>
+      <c r="B38">
+        <v>1.335804362635084</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>1.5</v>
+      </c>
+      <c r="B39">
+        <v>1.544968383374866</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>1.5</v>
+      </c>
+      <c r="B40">
+        <v>1.270030469786823</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>1.956112962279146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>1.9938679455568149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>2.043977371243074</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>1.984716564248735</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>2.049323379600497</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>1.8966835416963339</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>2.0216841818582312</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>2.027643353981325</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>2.0728286834503309</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>2.1566267013028848</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>2.222271563813512</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <v>2.2148005204960839</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53">
+        <v>2.2419068600667762</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <v>2.2657123229986591</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <v>2.0977626566286371</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56">
+        <v>2.0915376669914769</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57">
+        <v>2.199202410380106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58">
+        <v>2.2026111670029138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>2.085092561975137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60">
+        <v>2.212234224960179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>2.5</v>
+      </c>
+      <c r="B61">
+        <v>2.2315055656051141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>2.5</v>
+      </c>
+      <c r="B62">
+        <v>2.495525994198752</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>2.5</v>
+      </c>
+      <c r="B63">
+        <v>2.3974560426607048</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>2.5</v>
+      </c>
+      <c r="B64">
+        <v>2.4410531572802969</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>2.5</v>
+      </c>
+      <c r="B65">
+        <v>2.3917999250420712</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>2.5</v>
+      </c>
+      <c r="B66">
+        <v>2.3447431664086089</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>2.5</v>
+      </c>
+      <c r="B67">
+        <v>2.3660536816944848</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>2.5</v>
+      </c>
+      <c r="B68">
+        <v>2.338948167458073</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>2.5</v>
+      </c>
+      <c r="B69">
+        <v>2.283107450290053</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>2.5</v>
+      </c>
+      <c r="B70">
+        <v>2.3755038247154778</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>2.5</v>
+      </c>
+      <c r="B71">
+        <v>2.3378610085389369</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>2.5</v>
+      </c>
+      <c r="B72">
+        <v>2.4751829510671981</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>2.5</v>
+      </c>
+      <c r="B73">
+        <v>2.4599837928025798</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>2.5</v>
+      </c>
+      <c r="B74">
+        <v>2.4656455931999832</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>2.5</v>
+      </c>
+      <c r="B75">
+        <v>2.4588391131408902</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>2.5</v>
+      </c>
+      <c r="B76">
+        <v>2.528449745183329</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>2.5</v>
+      </c>
+      <c r="B77">
+        <v>2.514920509119118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>2.5</v>
+      </c>
+      <c r="B78">
+        <v>2.5199720578783809</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>2.5</v>
+      </c>
+      <c r="B79">
+        <v>2.359489700434545</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>2.5</v>
+      </c>
+      <c r="B80">
+        <v>2.3338253953756611</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>3</v>
+      </c>
+      <c r="B81">
+        <v>2.8919414636948968</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>3</v>
+      </c>
+      <c r="B82">
+        <v>2.916698952920056</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>3</v>
+      </c>
+      <c r="B83">
+        <v>3.0627662171951151</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>3</v>
+      </c>
+      <c r="B84">
+        <v>2.9010343303324442</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>3</v>
+      </c>
+      <c r="B85">
+        <v>2.8587727783986212</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>3</v>
+      </c>
+      <c r="B86">
+        <v>2.90035352874277</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>3</v>
+      </c>
+      <c r="B87">
+        <v>2.880866696795831</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>3</v>
+      </c>
+      <c r="B88">
+        <v>2.9534369315942421</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>3</v>
+      </c>
+      <c r="B89">
+        <v>2.9599452341973702</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>3</v>
+      </c>
+      <c r="B90">
+        <v>2.8781914425305701</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>3</v>
+      </c>
+      <c r="B91">
+        <v>3.1280588390301669</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>3</v>
+      </c>
+      <c r="B92">
+        <v>3.140334386455125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>3</v>
+      </c>
+      <c r="B93">
+        <v>3.126636114096597</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>3</v>
+      </c>
+      <c r="B94">
+        <v>3.1404722876371531</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>3</v>
+      </c>
+      <c r="B95">
+        <v>3.0896408003896951</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>3</v>
+      </c>
+      <c r="B96">
+        <v>3.1420510923396172</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>3</v>
+      </c>
+      <c r="B97">
+        <v>3.0622481551773841</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>3</v>
+      </c>
+      <c r="B98">
+        <v>3.0694296635826248</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>3</v>
+      </c>
+      <c r="B99">
+        <v>3.2151712596184132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>3</v>
+      </c>
+      <c r="B100">
+        <v>2.94244388492594</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>3.5</v>
+      </c>
+      <c r="B101">
+        <v>3.5516587207485171</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>3.5</v>
+      </c>
+      <c r="B102">
+        <v>3.4355523723632122</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>3.5</v>
+      </c>
+      <c r="B103">
+        <v>3.1919982020458142</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>3.5</v>
+      </c>
+      <c r="B104">
+        <v>3.5224889564770852</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>3.5</v>
+      </c>
+      <c r="B105">
+        <v>3.4784171747944281</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>3.5</v>
+      </c>
+      <c r="B106">
+        <v>3.369611642059128</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>3.5</v>
+      </c>
+      <c r="B107">
+        <v>3.3392556968736682</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>3.5</v>
+      </c>
+      <c r="B108">
+        <v>3.2802584013525391</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>3.5</v>
+      </c>
+      <c r="B109">
+        <v>3.4576821962378519</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>3.5</v>
+      </c>
+      <c r="B110">
+        <v>3.2916319689506812</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>3.5</v>
+      </c>
+      <c r="B111">
+        <v>3.392648300907922</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>3.5</v>
+      </c>
+      <c r="B112">
+        <v>3.418181986407371</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>3.5</v>
+      </c>
+      <c r="B113">
+        <v>3.4471733744168032</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>3.5</v>
+      </c>
+      <c r="B114">
+        <v>3.4716819841138582</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>3.5</v>
+      </c>
+      <c r="B115">
+        <v>3.42705756371255</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>3.5</v>
+      </c>
+      <c r="B116">
+        <v>3.4014011285831671</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>3.5</v>
+      </c>
+      <c r="B117">
+        <v>3.3947975052219741</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>3.5</v>
+      </c>
+      <c r="B118">
+        <v>3.3109277729772151</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>3.5</v>
+      </c>
+      <c r="B119">
+        <v>3.4350147299826008</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>3.5</v>
+      </c>
+      <c r="B120">
+        <v>3.5179621721854129</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>4</v>
+      </c>
+      <c r="B121">
+        <v>4.0605282317867184</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>4</v>
+      </c>
+      <c r="B122">
+        <v>3.9706468702322328</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>4</v>
+      </c>
+      <c r="B123">
+        <v>4.1069750143098842</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>4</v>
+      </c>
+      <c r="B124">
+        <v>4.0701140459393121</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>4</v>
+      </c>
+      <c r="B125">
+        <v>4.093774193777227</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>4</v>
+      </c>
+      <c r="B126">
+        <v>4.0108933641803439</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>4</v>
+      </c>
+      <c r="B127">
+        <v>3.9888502901310958</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>4</v>
+      </c>
+      <c r="B128">
+        <v>4.1344475539587568</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>4</v>
+      </c>
+      <c r="B129">
+        <v>4.1821233862431999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>4</v>
+      </c>
+      <c r="B130">
+        <v>4.1958164707613594</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>4</v>
+      </c>
+      <c r="B131">
+        <v>3.9064983046287969</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>4</v>
+      </c>
+      <c r="B132">
+        <v>3.9690101203731101</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>4</v>
+      </c>
+      <c r="B133">
+        <v>3.94646228864314</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>4</v>
+      </c>
+      <c r="B134">
+        <v>3.9518611926865019</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>4</v>
+      </c>
+      <c r="B135">
+        <v>3.89832853315749</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>4</v>
+      </c>
+      <c r="B136">
+        <v>3.857728133740677</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>4</v>
+      </c>
+      <c r="B137">
+        <v>3.9752496486749211</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>4</v>
+      </c>
+      <c r="B138">
+        <v>3.9463755929338089</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>4</v>
+      </c>
+      <c r="B139">
+        <v>4.0096558967636629</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>4</v>
+      </c>
+      <c r="B140">
+        <v>3.9671667975205969</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>4.5</v>
+      </c>
+      <c r="B141">
+        <v>4.3301190224900603</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>4.5</v>
+      </c>
+      <c r="B142">
+        <v>4.3416984840332304</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>4.5</v>
+      </c>
+      <c r="B143">
+        <v>4.3777067896615351</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>4.5</v>
+      </c>
+      <c r="B144">
+        <v>4.3419161856696578</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>4.5</v>
+      </c>
+      <c r="B145">
+        <v>4.602378076904853</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>4.5</v>
+      </c>
+      <c r="B146">
+        <v>4.3017793131040811</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>4.5</v>
+      </c>
+      <c r="B147">
+        <v>4.2758125875856123</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>4.5</v>
+      </c>
+      <c r="B148">
+        <v>4.3208369963286444</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>4.5</v>
+      </c>
+      <c r="B149">
+        <v>4.3764729429948392</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>4.5</v>
+      </c>
+      <c r="B150">
+        <v>4.4324710107205947</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>4.5</v>
+      </c>
+      <c r="B151">
+        <v>4.1933348933914978</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>4.5</v>
+      </c>
+      <c r="B152">
+        <v>4.1868533151321667</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>4.5</v>
+      </c>
+      <c r="B153">
+        <v>4.2865198485823903</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>4.5</v>
+      </c>
+      <c r="B154">
+        <v>4.3459800846102743</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>4.5</v>
+      </c>
+      <c r="B155">
+        <v>4.1959007694353367</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>4.5</v>
+      </c>
+      <c r="B156">
+        <v>4.2337622594126358</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>4.5</v>
+      </c>
+      <c r="B157">
+        <v>4.2667750783543017</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>4.5</v>
+      </c>
+      <c r="B158">
+        <v>4.2919310581576662</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>4.5</v>
+      </c>
+      <c r="B159">
+        <v>4.3433800377330192</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>4.5</v>
+      </c>
+      <c r="B160">
+        <v>4.2266830006605272</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>5</v>
+      </c>
+      <c r="B161">
+        <v>4.7703288177172984</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>5</v>
+      </c>
+      <c r="B162">
+        <v>4.7601256402567014</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>5</v>
+      </c>
+      <c r="B163">
+        <v>4.8124668317309194</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>5</v>
+      </c>
+      <c r="B164">
+        <v>4.7994310846141639</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>5</v>
+      </c>
+      <c r="B165">
+        <v>4.8111271829883986</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>5</v>
+      </c>
+      <c r="B166">
+        <v>4.7836340003633779</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <v>5</v>
+      </c>
+      <c r="B167">
+        <v>4.7222325807656524</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <v>5</v>
+      </c>
+      <c r="B168">
+        <v>4.739683385255276</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169">
+        <v>5</v>
+      </c>
+      <c r="B169">
+        <v>4.6540313836801568</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <v>5</v>
+      </c>
+      <c r="B170">
+        <v>4.3933650265338873</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <v>5</v>
+      </c>
+      <c r="B171">
+        <v>5.1585163442901978</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172">
+        <v>5</v>
+      </c>
+      <c r="B172">
+        <v>5.1725654345627916</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>5</v>
+      </c>
+      <c r="B173">
+        <v>4.8867061068223014</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <v>5</v>
+      </c>
+      <c r="B174">
+        <v>5.0911687144526958</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <v>5</v>
+      </c>
+      <c r="B175">
+        <v>5.0959083112855517</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>5</v>
+      </c>
+      <c r="B176">
+        <v>5.1408299309951762</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>5</v>
+      </c>
+      <c r="B177">
+        <v>5.068395808385878</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <v>5</v>
+      </c>
+      <c r="B178">
+        <v>5.0616254160538388</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <v>5</v>
+      </c>
+      <c r="B179">
+        <v>4.9779272061925939</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>5</v>
+      </c>
+      <c r="B180">
+        <v>5.0796803541012574</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>5.5</v>
+      </c>
+      <c r="B181">
+        <v>5.4384651216575852</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <v>5.5</v>
+      </c>
+      <c r="B182">
+        <v>5.445117717656065</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>5.5</v>
+      </c>
+      <c r="B183">
+        <v>5.4183455522191091</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>5.5</v>
+      </c>
+      <c r="B184">
+        <v>5.44109492272929</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <v>5.5</v>
+      </c>
+      <c r="B185">
+        <v>5.3903001630817933</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>5.5</v>
+      </c>
+      <c r="B186">
+        <v>5.3278202866227682</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>5.5</v>
+      </c>
+      <c r="B187">
+        <v>5.3841238661433231</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>5.5</v>
+      </c>
+      <c r="B188">
+        <v>5.3126946432818496</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>5.5</v>
+      </c>
+      <c r="B189">
+        <v>5.3426746949432324</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>5.5</v>
+      </c>
+      <c r="B190">
+        <v>5.1631829532057916</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>5.5</v>
+      </c>
+      <c r="B191">
+        <v>5.4142718462895996</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>5.5</v>
+      </c>
+      <c r="B192">
+        <v>5.500612087434547</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <v>5.5</v>
+      </c>
+      <c r="B193">
+        <v>5.5195001246387552</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194">
+        <v>5.5</v>
+      </c>
+      <c r="B194">
+        <v>5.4207535074927016</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195">
+        <v>5.5</v>
+      </c>
+      <c r="B195">
+        <v>5.4938978639527516</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196">
+        <v>5.5</v>
+      </c>
+      <c r="B196">
+        <v>5.5022544398230613</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197">
+        <v>5.5</v>
+      </c>
+      <c r="B197">
+        <v>5.4854559235492788</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198">
+        <v>5.5</v>
+      </c>
+      <c r="B198">
+        <v>5.5158350021930653</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <v>5.5</v>
+      </c>
+      <c r="B199">
+        <v>5.495284376995528</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <v>5.5</v>
+      </c>
+      <c r="B200">
+        <v>5.6231683271761206</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>